--- a/Code/Results/Cases/Case_2_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_166/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.810800156807005</v>
+        <v>0.5747915368188501</v>
       </c>
       <c r="C2">
-        <v>0.4636908250373608</v>
+        <v>0.1557691994893844</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.2407364470241333</v>
+        <v>0.1348011902172317</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007772147505647881</v>
+        <v>0.002379262827167503</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.144293225774959</v>
+        <v>0.3104406852202857</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8498637496461825</v>
+        <v>0.2952196453983476</v>
       </c>
       <c r="N2">
-        <v>0.6184501249521972</v>
+        <v>0.9219684851426919</v>
       </c>
       <c r="O2">
-        <v>1.072228197250524</v>
+        <v>1.402236214712559</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.578138549604574</v>
+        <v>0.5025293680304515</v>
       </c>
       <c r="C3">
-        <v>0.4077748732189548</v>
+        <v>0.1380220443971041</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.2101830972053236</v>
+        <v>0.1279374319561342</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.0007810686471483859</v>
+        <v>0.002381796418243794</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.1449943922546595</v>
+        <v>0.314510296755671</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7359849964828982</v>
+        <v>0.2625844281756642</v>
       </c>
       <c r="N3">
-        <v>0.630915193036266</v>
+        <v>0.9283761465473219</v>
       </c>
       <c r="O3">
-        <v>0.9943129671397628</v>
+        <v>1.398801450834966</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.435359632312299</v>
+        <v>0.4580514592542784</v>
       </c>
       <c r="C4">
-        <v>0.3734563213878062</v>
+        <v>0.1270636041937223</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1918984593537587</v>
+        <v>0.1238402016742057</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.0007835100876513116</v>
+        <v>0.002383434912642701</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.1460244982423973</v>
+        <v>0.317267943082971</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.6665490540266461</v>
+        <v>0.2425994294672904</v>
       </c>
       <c r="N4">
-        <v>0.6394845878236524</v>
+        <v>0.9327213886221912</v>
       </c>
       <c r="O4">
-        <v>0.9496558062065787</v>
+        <v>1.39792757229398</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.377176421475696</v>
+        <v>0.4399000338193559</v>
       </c>
       <c r="C5">
-        <v>0.3594691972614896</v>
+        <v>0.1225826280945626</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1845546398254072</v>
+        <v>0.1221997627124409</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.000784524287685784</v>
+        <v>0.002384123510727546</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.1465868338293284</v>
+        <v>0.3184566470400121</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.6383558935308571</v>
+        <v>0.2344687809341224</v>
       </c>
       <c r="N5">
-        <v>0.6431993661571411</v>
+        <v>0.9345955401730919</v>
       </c>
       <c r="O5">
-        <v>0.9322031021096251</v>
+        <v>1.397881162317475</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.367514638583486</v>
+        <v>0.436884443608534</v>
       </c>
       <c r="C6">
-        <v>0.357146367239892</v>
+        <v>0.1218376450278527</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1833413435553339</v>
+        <v>0.1219291265742157</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0007846938714862195</v>
+        <v>0.002384239116165132</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.1466885871495052</v>
+        <v>0.3186579480289282</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.6336800818057284</v>
+        <v>0.2331195033815803</v>
       </c>
       <c r="N6">
-        <v>0.6438294373534035</v>
+        <v>0.9349129916484387</v>
       </c>
       <c r="O6">
-        <v>0.9293485652865456</v>
+        <v>1.397892135838148</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.434574975724615</v>
+        <v>0.4578067680051561</v>
       </c>
       <c r="C7">
-        <v>0.3732677014779142</v>
+        <v>0.1270032339964189</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1917989990799214</v>
+        <v>0.1238179601663632</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0007835236868217188</v>
+        <v>0.002383444114652098</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.1460315154315843</v>
+        <v>0.3172837116292051</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.6661684411301039</v>
+        <v>0.2424897223915963</v>
       </c>
       <c r="N7">
-        <v>0.6395337947339783</v>
+        <v>0.9327462451631447</v>
       </c>
       <c r="O7">
-        <v>0.9494174851579515</v>
+        <v>1.397925693573512</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.730550833416572</v>
+        <v>0.5498986695469341</v>
       </c>
       <c r="C8">
-        <v>0.4444045965339569</v>
+        <v>0.1496628658748023</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.2300954426914998</v>
+        <v>0.132410105242073</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007785282280501974</v>
+        <v>0.002380119249950352</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.1444054709369098</v>
+        <v>0.3117900595470005</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8104852213151261</v>
+        <v>0.2839559998589891</v>
       </c>
       <c r="N8">
-        <v>0.6225533002497698</v>
+        <v>0.9240926220670787</v>
       </c>
       <c r="O8">
-        <v>1.044668351631373</v>
+        <v>1.400795038953135</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.312503244103652</v>
+        <v>0.7295931224206242</v>
       </c>
       <c r="C9">
-        <v>0.5842931016780994</v>
+        <v>0.1936039909799945</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.3095571588992527</v>
+        <v>0.1502006397880606</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007693090295515788</v>
+        <v>0.002374253775980743</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.1463660541242007</v>
+        <v>0.3030783571496123</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.098309817516352</v>
+        <v>0.3656957737927229</v>
       </c>
       <c r="N9">
-        <v>0.5968851488292586</v>
+        <v>0.9103792076494202</v>
       </c>
       <c r="O9">
-        <v>1.259350932933614</v>
+        <v>1.416263544586116</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.742452720681683</v>
+        <v>0.8610326110449478</v>
       </c>
       <c r="C10">
-        <v>0.6877340364439988</v>
+        <v>0.2255818705421007</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3714886302689706</v>
+        <v>0.1638630695232877</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007628587062603116</v>
+        <v>0.002370339426194409</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.15152489274206</v>
+        <v>0.2979444378920135</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.314172708132659</v>
+        <v>0.4260187915901525</v>
       </c>
       <c r="N10">
-        <v>0.5832180661331492</v>
+        <v>0.9022842394805579</v>
       </c>
       <c r="O10">
-        <v>1.438012043098297</v>
+        <v>1.433690014274276</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.938919916884174</v>
+        <v>0.9206948630979355</v>
       </c>
       <c r="C11">
-        <v>0.7350414709804625</v>
+        <v>0.2400623442769643</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.400651550833679</v>
+        <v>0.1702108771784765</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007599876029585048</v>
+        <v>0.002368643602384003</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.1548178981788766</v>
+        <v>0.2958860475768503</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.413685143794893</v>
+        <v>0.4535221902705757</v>
       </c>
       <c r="N11">
-        <v>0.5782572367342098</v>
+        <v>0.8990307276335301</v>
       </c>
       <c r="O11">
-        <v>1.524780168108094</v>
+        <v>1.442947587211279</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.013474942255243</v>
+        <v>0.943267837346184</v>
       </c>
       <c r="C12">
-        <v>0.7530012021517507</v>
+        <v>0.2455360409814205</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4118570464267748</v>
+        <v>0.1726339960954277</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007589088718064629</v>
+        <v>0.002368013572055072</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.1562134947890179</v>
+        <v>0.295146605249073</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.451589208762101</v>
+        <v>0.4639460153416053</v>
       </c>
       <c r="N12">
-        <v>0.5765711045047368</v>
+        <v>0.8978603192167256</v>
       </c>
       <c r="O12">
-        <v>1.558512592656285</v>
+        <v>1.446645487367761</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.997410680169651</v>
+        <v>0.9384072426744297</v>
       </c>
       <c r="C13">
-        <v>0.7491310756210225</v>
+        <v>0.2443576189065197</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.4094361976412841</v>
+        <v>0.1721112697005225</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007591408280995088</v>
+        <v>0.002368148721257456</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.1559061086928963</v>
+        <v>0.2953040742960802</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.443415531940261</v>
+        <v>0.461700663785038</v>
       </c>
       <c r="N13">
-        <v>0.5769254883708399</v>
+        <v>0.89810964758626</v>
       </c>
       <c r="O13">
-        <v>1.551207356870265</v>
+        <v>1.4458405120902</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.945050269963588</v>
+        <v>0.9225523588943929</v>
       </c>
       <c r="C14">
-        <v>0.736518062311319</v>
+        <v>0.2405128649930361</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4015700647406106</v>
+        <v>0.1704098394986033</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007598986884751</v>
+        <v>0.00236859152639059</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.1549296611687012</v>
+        <v>0.2958244099824263</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.416798915872008</v>
+        <v>0.454379586867347</v>
       </c>
       <c r="N14">
-        <v>0.5781145906230662</v>
+        <v>0.8989332026447059</v>
       </c>
       <c r="O14">
-        <v>1.527537302256917</v>
+        <v>1.443247956937796</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.912999423331712</v>
+        <v>0.9128381703266086</v>
       </c>
       <c r="C15">
-        <v>0.728798433155049</v>
+        <v>0.2381565674873229</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.3967735625753406</v>
+        <v>0.1693701909834431</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0007603639876096795</v>
+        <v>0.002368864336671359</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.1543513005222685</v>
+        <v>0.2961483485987877</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.400525222292103</v>
+        <v>0.4498963713776618</v>
       </c>
       <c r="N15">
-        <v>0.5788683736361619</v>
+        <v>0.8994456778967148</v>
       </c>
       <c r="O15">
-        <v>1.513155332783271</v>
+        <v>1.441685008780922</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.729633401416947</v>
+        <v>0.857130827984804</v>
       </c>
       <c r="C16">
-        <v>0.6846482192042629</v>
+        <v>0.2246341844130768</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.3696043361094681</v>
+        <v>0.1634509178241998</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007630475613222636</v>
+        <v>0.002370451954363158</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.1513297779746559</v>
+        <v>0.2980845494351705</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.307698453335064</v>
+        <v>0.4242226259865589</v>
       </c>
       <c r="N16">
-        <v>0.583568535247494</v>
+        <v>0.9025054906004755</v>
       </c>
       <c r="O16">
-        <v>1.432459227270755</v>
+        <v>1.433111860568914</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.617390806955314</v>
+        <v>0.8229220397660697</v>
       </c>
       <c r="C17">
-        <v>0.657634259786505</v>
+        <v>0.2163214902224695</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.3532039767164719</v>
+        <v>0.1598538077879397</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0007647096214522087</v>
+        <v>0.00237144759329911</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.1497271496443524</v>
+        <v>0.2993434382588553</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.251110838349447</v>
+        <v>0.4084884963472035</v>
       </c>
       <c r="N17">
-        <v>0.586781820174707</v>
+        <v>0.9044924061233033</v>
       </c>
       <c r="O17">
-        <v>1.384420494319784</v>
+        <v>1.428193901228042</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.552912787034927</v>
+        <v>0.8032338571131277</v>
       </c>
       <c r="C18">
-        <v>0.6421196278468813</v>
+        <v>0.2115340077125722</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3438628221006255</v>
+        <v>0.1577973200079654</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007656715793256862</v>
+        <v>0.002372028246679916</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1488936181724725</v>
+        <v>0.3000935845047259</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.218684886933715</v>
+        <v>0.3994444946180806</v>
       </c>
       <c r="N18">
-        <v>0.5887475204719408</v>
+        <v>0.9056756031831625</v>
       </c>
       <c r="O18">
-        <v>1.357301553398429</v>
+        <v>1.42549036588332</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.531094654521951</v>
+        <v>0.7965657162269508</v>
       </c>
       <c r="C19">
-        <v>0.6368703364329633</v>
+        <v>0.209911982438399</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.3407152771372139</v>
+        <v>0.1571031632259476</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0007659983270327074</v>
+        <v>0.002372226219688689</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1486261903498907</v>
+        <v>0.3003520424698678</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.207726005111184</v>
+        <v>0.3963833579943383</v>
       </c>
       <c r="N19">
-        <v>0.5894329099839979</v>
+        <v>0.9060831496754531</v>
       </c>
       <c r="O19">
-        <v>1.348204939314769</v>
+        <v>1.424596459151303</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.629330632097265</v>
+        <v>0.8265648935144441</v>
       </c>
       <c r="C20">
-        <v>0.6605074885711986</v>
+        <v>0.2172070379933757</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.3549401741988234</v>
+        <v>0.1602354333203451</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007645320770973317</v>
+        <v>0.00237134077942103</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.1498885299815846</v>
+        <v>0.2992067282470288</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.25712186506243</v>
+        <v>0.4101628158814208</v>
       </c>
       <c r="N20">
-        <v>0.586427516902468</v>
+        <v>0.9042767172312551</v>
       </c>
       <c r="O20">
-        <v>1.389480748343971</v>
+        <v>1.428704467277242</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.960425270349276</v>
+        <v>0.9272098693938347</v>
       </c>
       <c r="C21">
-        <v>0.7402214990758864</v>
+        <v>0.2416424284091363</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.4038759720187386</v>
+        <v>0.1709090637841939</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0007596758609735902</v>
+        <v>0.002368461134787146</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.155212329576468</v>
+        <v>0.2956704870246867</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.424610600245714</v>
+        <v>0.4565297239092558</v>
       </c>
       <c r="N21">
-        <v>0.5777600019896383</v>
+        <v>0.8986896324558273</v>
       </c>
       <c r="O21">
-        <v>1.534465305387897</v>
+        <v>1.444004227600487</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.177746902950105</v>
+        <v>0.9928711120047637</v>
       </c>
       <c r="C22">
-        <v>0.7925889523926912</v>
+        <v>0.257555481689451</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.4368138626922118</v>
+        <v>0.1779977588497133</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0007565512409139339</v>
+        <v>0.002366649863659209</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1595644675614238</v>
+        <v>0.2935927335432886</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.535378332027165</v>
+        <v>0.4868849425121908</v>
       </c>
       <c r="N22">
-        <v>0.5732229900333508</v>
+        <v>0.8953973309138661</v>
       </c>
       <c r="O22">
-        <v>1.634367084976134</v>
+        <v>1.455124586808608</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.061662196367706</v>
+        <v>0.9578374533992928</v>
       </c>
       <c r="C23">
-        <v>0.7646114922416132</v>
+        <v>0.2490676543130803</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.4191398518851557</v>
+        <v>0.1742039761280836</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.000758214615304823</v>
+        <v>0.002367610119011148</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.1571573945403486</v>
+        <v>0.2946802538196565</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.476128951619728</v>
+        <v>0.4706790719977221</v>
       </c>
       <c r="N23">
-        <v>0.5755371747646976</v>
+        <v>0.8971216456246083</v>
       </c>
       <c r="O23">
-        <v>1.580546819966429</v>
+        <v>1.449086539595669</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.62393247825463</v>
+        <v>0.8249180249595156</v>
       </c>
       <c r="C24">
-        <v>0.6592084525240409</v>
+        <v>0.2168067080106084</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.3541549678407776</v>
+        <v>0.1600628644970143</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007646123248759171</v>
+        <v>0.002371389044291607</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.1498152972630855</v>
+        <v>0.2992684526397404</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.254403948899267</v>
+        <v>0.4094058505412335</v>
       </c>
       <c r="N24">
-        <v>0.5865873296880011</v>
+        <v>0.9043741027934757</v>
       </c>
       <c r="O24">
-        <v>1.387191459063388</v>
+        <v>1.428473254604825</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.154761670902246</v>
+        <v>0.6810807146359821</v>
       </c>
       <c r="C25">
-        <v>0.5463658739472521</v>
+        <v>0.1817701226800352</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.2875058926219722</v>
+        <v>0.1452852070205282</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007717441575051505</v>
+        <v>0.00237577088351317</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.1452269887206548</v>
+        <v>0.3052133976677354</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.019785800093992</v>
+        <v>0.3435365192057489</v>
       </c>
       <c r="N25">
-        <v>0.6029587679315185</v>
+        <v>0.9137409596929302</v>
       </c>
       <c r="O25">
-        <v>1.197898493836448</v>
+        <v>1.411018869802177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_166/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_166/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5747915368188501</v>
+        <v>1.810800156807005</v>
       </c>
       <c r="C2">
-        <v>0.1557691994893844</v>
+        <v>0.4636908250374745</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1348011902172317</v>
+        <v>0.240736447024112</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002379262827167503</v>
+        <v>0.0007772147505849395</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3104406852202857</v>
+        <v>0.1442932257749376</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2952196453983476</v>
+        <v>0.8498637496461896</v>
       </c>
       <c r="N2">
-        <v>0.9219684851426919</v>
+        <v>0.6184501249521759</v>
       </c>
       <c r="O2">
-        <v>1.402236214712559</v>
+        <v>1.072228197250467</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5025293680304515</v>
+        <v>1.578138549604347</v>
       </c>
       <c r="C3">
-        <v>0.1380220443971041</v>
+        <v>0.4077748732189548</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1279374319561342</v>
+        <v>0.2101830972053449</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002381796418243794</v>
+        <v>0.000781068647072036</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.314510296755671</v>
+        <v>0.1449943922546382</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2625844281756642</v>
+        <v>0.7359849964828982</v>
       </c>
       <c r="N3">
-        <v>0.9283761465473219</v>
+        <v>0.6309151930362518</v>
       </c>
       <c r="O3">
-        <v>1.398801450834966</v>
+        <v>0.9943129671397628</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4580514592542784</v>
+        <v>1.435359632312355</v>
       </c>
       <c r="C4">
-        <v>0.1270636041937223</v>
+        <v>0.3734563213874935</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1238402016742057</v>
+        <v>0.1918984593537729</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002383434912642701</v>
+        <v>0.0007835100875938684</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.317267943082971</v>
+        <v>0.1460244982423937</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2425994294672904</v>
+        <v>0.666549054026639</v>
       </c>
       <c r="N4">
-        <v>0.9327213886221912</v>
+        <v>0.6394845878236524</v>
       </c>
       <c r="O4">
-        <v>1.39792757229398</v>
+        <v>0.9496558062066498</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4399000338193559</v>
+        <v>1.377176421475554</v>
       </c>
       <c r="C5">
-        <v>0.1225826280945626</v>
+        <v>0.3594691972612054</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1221997627124409</v>
+        <v>0.1845546398254001</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002384123510727546</v>
+        <v>0.0007845242876841975</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3184566470400121</v>
+        <v>0.1465868338293248</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2344687809341224</v>
+        <v>0.6383558935308642</v>
       </c>
       <c r="N5">
-        <v>0.9345955401730919</v>
+        <v>0.643199366157134</v>
       </c>
       <c r="O5">
-        <v>1.397881162317475</v>
+        <v>0.9322031021096393</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.436884443608534</v>
+        <v>1.367514638583629</v>
       </c>
       <c r="C6">
-        <v>0.1218376450278527</v>
+        <v>0.3571463672399204</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1219291265742157</v>
+        <v>0.1833413435553126</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002384239116165132</v>
+        <v>0.0007846938714270055</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3186579480289282</v>
+        <v>0.1466885871495052</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2331195033815803</v>
+        <v>0.6336800818057213</v>
       </c>
       <c r="N6">
-        <v>0.9349129916484387</v>
+        <v>0.6438294373534532</v>
       </c>
       <c r="O6">
-        <v>1.397892135838148</v>
+        <v>0.9293485652865598</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4578067680051561</v>
+        <v>1.434574975724615</v>
       </c>
       <c r="C7">
-        <v>0.1270032339964189</v>
+        <v>0.3732677014781416</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1238179601663632</v>
+        <v>0.1917989990799072</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002383444114652098</v>
+        <v>0.0007835236868204768</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3172837116292051</v>
+        <v>0.1460315154315843</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2424897223915963</v>
+        <v>0.6661684411301039</v>
       </c>
       <c r="N7">
-        <v>0.9327462451631447</v>
+        <v>0.6395337947339641</v>
       </c>
       <c r="O7">
-        <v>1.397925693573512</v>
+        <v>0.9494174851580226</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5498986695469341</v>
+        <v>1.730550833416572</v>
       </c>
       <c r="C8">
-        <v>0.1496628658748023</v>
+        <v>0.4444045965340138</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.132410105242073</v>
+        <v>0.2300954426914927</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002380119249950352</v>
+        <v>0.0007785282281071519</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3117900595470005</v>
+        <v>0.1444054709369063</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2839559998589891</v>
+        <v>0.8104852213151332</v>
       </c>
       <c r="N8">
-        <v>0.9240926220670787</v>
+        <v>0.6225533002497627</v>
       </c>
       <c r="O8">
-        <v>1.400795038953135</v>
+        <v>1.044668351631287</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7295931224206242</v>
+        <v>2.312503244103652</v>
       </c>
       <c r="C9">
-        <v>0.1936039909799945</v>
+        <v>0.5842931016781279</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1502006397880606</v>
+        <v>0.3095571588992456</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002374253775980743</v>
+        <v>0.0007693090295296699</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3030783571496123</v>
+        <v>0.1463660541242184</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3656957737927229</v>
+        <v>1.098309817516345</v>
       </c>
       <c r="N9">
-        <v>0.9103792076494202</v>
+        <v>0.5968851488292088</v>
       </c>
       <c r="O9">
-        <v>1.416263544586116</v>
+        <v>1.259350932933557</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8610326110449478</v>
+        <v>2.742452720681626</v>
       </c>
       <c r="C10">
-        <v>0.2255818705421007</v>
+        <v>0.6877340364441409</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1638630695232877</v>
+        <v>0.3714886302689919</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.002370339426194409</v>
+        <v>0.0007628587062600128</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.2979444378920135</v>
+        <v>0.15152489274206</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4260187915901525</v>
+        <v>1.314172708132674</v>
       </c>
       <c r="N10">
-        <v>0.9022842394805579</v>
+        <v>0.5832180661331492</v>
       </c>
       <c r="O10">
-        <v>1.433690014274276</v>
+        <v>1.438012043098297</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9206948630979355</v>
+        <v>2.938919916884117</v>
       </c>
       <c r="C11">
-        <v>0.2400623442769643</v>
+        <v>0.7350414709803204</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1702108771784765</v>
+        <v>0.4006515508336719</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002368643602384003</v>
+        <v>0.0007599876030433258</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.2958860475768503</v>
+        <v>0.154817898178873</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4535221902705757</v>
+        <v>1.413685143794879</v>
       </c>
       <c r="N11">
-        <v>0.8990307276335301</v>
+        <v>0.5782572367342098</v>
       </c>
       <c r="O11">
-        <v>1.442947587211279</v>
+        <v>1.524780168108066</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.943267837346184</v>
+        <v>3.013474942255129</v>
       </c>
       <c r="C12">
-        <v>0.2455360409814205</v>
+        <v>0.7530012021520349</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1726339960954277</v>
+        <v>0.4118570464267819</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002368013572055072</v>
+        <v>0.000758908871834648</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.295146605249073</v>
+        <v>0.1562134947890179</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4639460153416053</v>
+        <v>1.451589208762115</v>
       </c>
       <c r="N12">
-        <v>0.8978603192167256</v>
+        <v>0.5765711045047226</v>
       </c>
       <c r="O12">
-        <v>1.446645487367761</v>
+        <v>1.558512592656257</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9384072426744297</v>
+        <v>2.997410680169708</v>
       </c>
       <c r="C13">
-        <v>0.2443576189065197</v>
+        <v>0.7491310756211931</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1721112697005225</v>
+        <v>0.409436197641277</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002368148721257456</v>
+        <v>0.0007591408280454814</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.2953040742960802</v>
+        <v>0.1559061086928821</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.461700663785038</v>
+        <v>1.443415531940246</v>
       </c>
       <c r="N13">
-        <v>0.89810964758626</v>
+        <v>0.5769254883708257</v>
       </c>
       <c r="O13">
-        <v>1.4458405120902</v>
+        <v>1.551207356870208</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9225523588943929</v>
+        <v>2.945050269963701</v>
       </c>
       <c r="C14">
-        <v>0.2405128649930361</v>
+        <v>0.7365180623112053</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1704098394986033</v>
+        <v>0.4015700647406533</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.00236859152639059</v>
+        <v>0.0007598986885003652</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.2958244099824263</v>
+        <v>0.1549296611687119</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.454379586867347</v>
+        <v>1.41679891587205</v>
       </c>
       <c r="N14">
-        <v>0.8989332026447059</v>
+        <v>0.5781145906230734</v>
       </c>
       <c r="O14">
-        <v>1.443247956937796</v>
+        <v>1.527537302256889</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9128381703266086</v>
+        <v>2.912999423331769</v>
       </c>
       <c r="C15">
-        <v>0.2381565674873229</v>
+        <v>0.7287984331555606</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1693701909834431</v>
+        <v>0.3967735625753548</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002368864336671359</v>
+        <v>0.0007603639876381241</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.2961483485987877</v>
+        <v>0.1543513005222721</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.4498963713776618</v>
+        <v>1.40052522229206</v>
       </c>
       <c r="N15">
-        <v>0.8994456778967148</v>
+        <v>0.5788683736361051</v>
       </c>
       <c r="O15">
-        <v>1.441685008780922</v>
+        <v>1.513155332783185</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.857130827984804</v>
+        <v>2.729633401416947</v>
       </c>
       <c r="C16">
-        <v>0.2246341844130768</v>
+        <v>0.6846482192040355</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1634509178241998</v>
+        <v>0.3696043361094183</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002370451954363158</v>
+        <v>0.0007630475613505988</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.2980845494351705</v>
+        <v>0.1513297779746523</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4242226259865589</v>
+        <v>1.307698453335078</v>
       </c>
       <c r="N16">
-        <v>0.9025054906004755</v>
+        <v>0.5835685352475366</v>
       </c>
       <c r="O16">
-        <v>1.433111860568914</v>
+        <v>1.43245922727067</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8229220397660697</v>
+        <v>2.617390806955257</v>
       </c>
       <c r="C17">
-        <v>0.2163214902224695</v>
+        <v>0.6576342597865619</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1598538077879397</v>
+        <v>0.3532039767164719</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.00237144759329911</v>
+        <v>0.0007647096214461801</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2993434382588553</v>
+        <v>0.1497271496443666</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4084884963472035</v>
+        <v>1.251110838349433</v>
       </c>
       <c r="N17">
-        <v>0.9044924061233033</v>
+        <v>0.5867818201747497</v>
       </c>
       <c r="O17">
-        <v>1.428193901228042</v>
+        <v>1.384420494319784</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8032338571131277</v>
+        <v>2.552912787034813</v>
       </c>
       <c r="C18">
-        <v>0.2115340077125722</v>
+        <v>0.6421196278469381</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1577973200079654</v>
+        <v>0.343862822100597</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002372028246679916</v>
+        <v>0.0007656715793526238</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3000935845047259</v>
+        <v>0.148893618172476</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3994444946180806</v>
+        <v>1.21868488693373</v>
       </c>
       <c r="N18">
-        <v>0.9056756031831625</v>
+        <v>0.5887475204719834</v>
       </c>
       <c r="O18">
-        <v>1.42549036588332</v>
+        <v>1.357301553398429</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7965657162269508</v>
+        <v>2.531094654521894</v>
       </c>
       <c r="C19">
-        <v>0.209911982438399</v>
+        <v>0.6368703364329633</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1571031632259476</v>
+        <v>0.3407152771372211</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002372226219688689</v>
+        <v>0.0007659983270320892</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3003520424698678</v>
+        <v>0.1486261903498942</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3963833579943383</v>
+        <v>1.207726005111155</v>
       </c>
       <c r="N19">
-        <v>0.9060831496754531</v>
+        <v>0.5894329099839979</v>
       </c>
       <c r="O19">
-        <v>1.424596459151303</v>
+        <v>1.348204939314826</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8265648935144441</v>
+        <v>2.629330632097208</v>
       </c>
       <c r="C20">
-        <v>0.2172070379933757</v>
+        <v>0.6605074885711701</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1602354333203451</v>
+        <v>0.3549401741988376</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.00237134077942103</v>
+        <v>0.000764532077039341</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.2992067282470288</v>
+        <v>0.1498885299815669</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4101628158814208</v>
+        <v>1.25712186506243</v>
       </c>
       <c r="N20">
-        <v>0.9042767172312551</v>
+        <v>0.5864275169025106</v>
       </c>
       <c r="O20">
-        <v>1.428704467277242</v>
+        <v>1.389480748343971</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9272098693938347</v>
+        <v>2.960425270349276</v>
       </c>
       <c r="C21">
-        <v>0.2416424284091363</v>
+        <v>0.7402214990758864</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1709090637841939</v>
+        <v>0.4038759720187244</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002368461134787146</v>
+        <v>0.000759675860949154</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.2956704870246867</v>
+        <v>0.155212329576468</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4565297239092558</v>
+        <v>1.424610600245714</v>
       </c>
       <c r="N21">
-        <v>0.8986896324558273</v>
+        <v>0.5777600019896951</v>
       </c>
       <c r="O21">
-        <v>1.444004227600487</v>
+        <v>1.534465305387869</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9928711120047637</v>
+        <v>3.177746902950048</v>
       </c>
       <c r="C22">
-        <v>0.257555481689451</v>
+        <v>0.7925889523927765</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1779977588497133</v>
+        <v>0.4368138626922118</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.002366649863659209</v>
+        <v>0.0007565512408628501</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.2935927335432886</v>
+        <v>0.1595644675614238</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4868849425121908</v>
+        <v>1.535378332027165</v>
       </c>
       <c r="N22">
-        <v>0.8953973309138661</v>
+        <v>0.5732229900334076</v>
       </c>
       <c r="O22">
-        <v>1.455124586808608</v>
+        <v>1.63436708497602</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9578374533992928</v>
+        <v>3.061662196367763</v>
       </c>
       <c r="C23">
-        <v>0.2490676543130803</v>
+        <v>0.76461149224167</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1742039761280836</v>
+        <v>0.4191398518851628</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002367610119011148</v>
+        <v>0.0007582146152512469</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.2946802538196565</v>
+        <v>0.1571573945403308</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4706790719977221</v>
+        <v>1.476128951619728</v>
       </c>
       <c r="N23">
-        <v>0.8971216456246083</v>
+        <v>0.5755371747646763</v>
       </c>
       <c r="O23">
-        <v>1.449086539595669</v>
+        <v>1.580546819966571</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8249180249595156</v>
+        <v>2.623932478254687</v>
       </c>
       <c r="C24">
-        <v>0.2168067080106084</v>
+        <v>0.659208452523842</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1600628644970143</v>
+        <v>0.3541549678407492</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002371389044291607</v>
+        <v>0.0007646123248749026</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.2992684526397404</v>
+        <v>0.1498152972630997</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4094058505412335</v>
+        <v>1.254403948899267</v>
       </c>
       <c r="N24">
-        <v>0.9043741027934757</v>
+        <v>0.5865873296880366</v>
       </c>
       <c r="O24">
-        <v>1.428473254604825</v>
+        <v>1.387191459063388</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.6810807146359821</v>
+        <v>2.154761670902246</v>
       </c>
       <c r="C25">
-        <v>0.1817701226800352</v>
+        <v>0.5463658739470247</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1452852070205282</v>
+        <v>0.2875058926219438</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.00237577088351317</v>
+        <v>0.0007717441574474189</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3052133976677354</v>
+        <v>0.1452269887206405</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3435365192057489</v>
+        <v>1.019785800093985</v>
       </c>
       <c r="N25">
-        <v>0.9137409596929302</v>
+        <v>0.6029587679315185</v>
       </c>
       <c r="O25">
-        <v>1.411018869802177</v>
+        <v>1.197898493836448</v>
       </c>
     </row>
   </sheetData>
